--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3707.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3707.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.288206104334102</v>
+        <v>1.501293420791626</v>
       </c>
       <c r="B1">
-        <v>2.440431083032949</v>
+        <v>3.101760625839233</v>
       </c>
       <c r="C1">
-        <v>6.901341294709796</v>
+        <v>4.81257152557373</v>
       </c>
       <c r="D1">
-        <v>2.332945440540485</v>
+        <v>1.921651482582092</v>
       </c>
       <c r="E1">
-        <v>1.084086796236788</v>
+        <v>1.150917410850525</v>
       </c>
     </row>
   </sheetData>
